--- a/teammatch1x4.xlsx
+++ b/teammatch1x4.xlsx
@@ -475,7 +475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D8">
@@ -553,12 +553,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D9">
@@ -577,7 +577,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D10">
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D11" s="5">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>90</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>110</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>130</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>150</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>170</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>190</v>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>110</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>140</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>170</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>200</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>230</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>260</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>120</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>150</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>180</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>210</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>240</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>270</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>110</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>130</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>150</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>170</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>190</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>140</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>170</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>200</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>230</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>260</v>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>400</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>430</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>460</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>490</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>520</v>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>130</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>150</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>170</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>190</v>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>420</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>450</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>480</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>510</v>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>430</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>460</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="12" t="n">
         <v>490</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="12" t="n">
         <v>520</v>
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="12" t="n">
         <v>400</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>420</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>440</v>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>450</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>480</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>510</v>
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>460</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>490</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>520</v>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>920</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="12" t="n">
         <v>940</v>
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>980</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>1010</v>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="12" t="n">
         <v>990</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="12" t="n">
         <v>1020</v>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>1440</v>
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>1510</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>1520</v>
